--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308922.9301479029</v>
+        <v>304785.4470129889</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33970018.24655607</v>
+        <v>33970018.24655606</v>
       </c>
     </row>
     <row r="8">
@@ -661,16 +661,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>23.32779925082459</v>
+        <v>23.32779925082478</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082459</v>
+        <v>23.32779925082478</v>
       </c>
       <c r="E2" t="n">
-        <v>21.83835005089221</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.877148757990051</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>17.3908863221812</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23.32779925082459</v>
+        <v>17.39088632218136</v>
       </c>
       <c r="H3" t="n">
-        <v>23.32779925082459</v>
+        <v>23.32779925082478</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>23.32779925082478</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.32779925082459</v>
+        <v>12.76456957586272</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.70124719403652</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9.138017519074388</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005867</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>33.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>30.58073358141469</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="H6" t="n">
-        <v>30.58073358141468</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>16.07267624245948</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.2578403135714</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.31500304752733</v>
+        <v>30.58073358141467</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.83972215570804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>174.1520217478735</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>253.8033332034368</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>155.5623312785505</v>
       </c>
       <c r="X13" t="n">
-        <v>109.5569607756758</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>244.9043102021001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.8476078895509</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -1669,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>89.30668535812433</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>11.45461388085811</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>200.4032134679021</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>224.285978493914</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>152.8093197685211</v>
       </c>
       <c r="U19" t="n">
-        <v>185.0832217507338</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>373.7232621786848</v>
       </c>
       <c r="Y20" t="n">
-        <v>285.9723837489945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>104.0104447315771</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>219.6133247711586</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2320,16 +2320,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>289.0012590013216</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>107.5359725498774</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144772</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>111.8760931075868</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>403.5550067690682</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>192.7443116694118</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258704</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>43.97954181326803</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2800,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>354.194570571038</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>93.53818910684785</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>29.71289223936168</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144772</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>106.4438755113828</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>275.11063723486</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>316.6474475486455</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>162.0955116647835</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>214.815636214875</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>97.23891385008216</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>10.40843091805052</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3432,16 +3432,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>123.9171977654393</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.122931086761546</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3483,7 +3483,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>105.5188043066319</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>152.6826055820614</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144772</v>
       </c>
       <c r="I40" t="n">
-        <v>33.91608582564115</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>214.5646102646778</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>283.2982750725637</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>118.1917635269038</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>63.62546569681959</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>57.56671353016114</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144772</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3988,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>93.5381891068478</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>222.0215175726363</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>63.62546569681959</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>269.1722636794823</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.05203055879464</v>
+        <v>50.88920097000499</v>
       </c>
       <c r="C2" t="n">
-        <v>47.48859697210314</v>
+        <v>27.32576738331329</v>
       </c>
       <c r="D2" t="n">
-        <v>23.92516338541163</v>
+        <v>3.76233379662159</v>
       </c>
       <c r="E2" t="n">
-        <v>1.866223940065967</v>
+        <v>3.76233379662159</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940065967</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940065967</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940065967</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="I2" t="n">
-        <v>4.300780394745994</v>
+        <v>4.300780394746032</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922386</v>
+        <v>10.55978981922395</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570084</v>
+        <v>19.94042246570101</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593534</v>
+        <v>31.5779267559356</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258583974</v>
+        <v>44.5268925858401</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622059896</v>
+        <v>57.68538622059945</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895248</v>
+        <v>70.11057862895306</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249608</v>
+        <v>80.71519288249677</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691038</v>
+        <v>88.67881654691114</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700329836</v>
+        <v>93.31119700329913</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700329836</v>
+        <v>93.31119700329913</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700329836</v>
+        <v>93.31119700329913</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700329836</v>
+        <v>93.31119700329913</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700329836</v>
+        <v>93.31119700329913</v>
       </c>
       <c r="W2" t="n">
-        <v>93.31119700329836</v>
+        <v>92.49614645473649</v>
       </c>
       <c r="X2" t="n">
-        <v>93.31119700329836</v>
+        <v>77.39408707445124</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.31119700329836</v>
+        <v>73.14836741450871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.55964295403605</v>
+        <v>42.99620936734492</v>
       </c>
       <c r="C3" t="n">
-        <v>66.55964295403605</v>
+        <v>42.99620936734492</v>
       </c>
       <c r="D3" t="n">
-        <v>66.55964295403605</v>
+        <v>42.99620936734492</v>
       </c>
       <c r="E3" t="n">
-        <v>66.55964295403605</v>
+        <v>42.99620936734492</v>
       </c>
       <c r="F3" t="n">
-        <v>48.99309111344898</v>
+        <v>42.99620936734492</v>
       </c>
       <c r="G3" t="n">
-        <v>25.42965752675747</v>
+        <v>25.42965752675768</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940065967</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="I3" t="n">
-        <v>3.224722227401192</v>
+        <v>3.224722227401219</v>
       </c>
       <c r="J3" t="n">
-        <v>6.952545362113051</v>
+        <v>6.952545362113108</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32398885826859</v>
+        <v>13.3239888582687</v>
       </c>
       <c r="L3" t="n">
-        <v>21.89118092381386</v>
+        <v>21.89118092381404</v>
       </c>
       <c r="M3" t="n">
-        <v>31.88868997596111</v>
+        <v>31.88868997596137</v>
       </c>
       <c r="N3" t="n">
-        <v>42.15080334420207</v>
+        <v>42.15080334420242</v>
       </c>
       <c r="O3" t="n">
-        <v>51.5386322095618</v>
+        <v>51.53863220956223</v>
       </c>
       <c r="P3" t="n">
-        <v>59.07319251962564</v>
+        <v>59.07319251962612</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.10984655205931</v>
+        <v>64.10984655205985</v>
       </c>
       <c r="R3" t="n">
-        <v>66.55964295403605</v>
+        <v>66.55964295403662</v>
       </c>
       <c r="S3" t="n">
-        <v>66.55964295403605</v>
+        <v>66.55964295403662</v>
       </c>
       <c r="T3" t="n">
-        <v>66.55964295403605</v>
+        <v>66.55964295403662</v>
       </c>
       <c r="U3" t="n">
-        <v>66.55964295403605</v>
+        <v>66.55964295403662</v>
       </c>
       <c r="V3" t="n">
-        <v>66.55964295403605</v>
+        <v>66.55964295403662</v>
       </c>
       <c r="W3" t="n">
-        <v>66.55964295403605</v>
+        <v>66.55964295403662</v>
       </c>
       <c r="X3" t="n">
-        <v>66.55964295403605</v>
+        <v>66.55964295403662</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.55964295403605</v>
+        <v>42.99620936734492</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.08087627696059</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="C4" t="n">
-        <v>84.08087627696059</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="D4" t="n">
-        <v>60.51744269026909</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="E4" t="n">
-        <v>60.51744269026909</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="F4" t="n">
-        <v>60.51744269026909</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="G4" t="n">
-        <v>60.51744269026909</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="H4" t="n">
-        <v>60.51744269026909</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="I4" t="n">
-        <v>60.51744269026909</v>
+        <v>1.866223940065983</v>
       </c>
       <c r="J4" t="n">
-        <v>62.85615912577967</v>
+        <v>4.204940375576581</v>
       </c>
       <c r="K4" t="n">
-        <v>66.69938865462436</v>
+        <v>8.048169904421307</v>
       </c>
       <c r="L4" t="n">
-        <v>71.61739927393</v>
+        <v>12.966180523727</v>
       </c>
       <c r="M4" t="n">
-        <v>76.80275191601679</v>
+        <v>18.15153316581382</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86480846210777</v>
+        <v>23.21358971190485</v>
       </c>
       <c r="O4" t="n">
-        <v>86.54043700001681</v>
+        <v>27.88921824981391</v>
       </c>
       <c r="P4" t="n">
-        <v>90.54124495398784</v>
+        <v>31.89002620378498</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700329836</v>
+        <v>34.65997825309552</v>
       </c>
       <c r="R4" t="n">
-        <v>93.31119700329836</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="S4" t="n">
-        <v>93.31119700329836</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="T4" t="n">
-        <v>93.31119700329836</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="U4" t="n">
-        <v>93.31119700329836</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="V4" t="n">
-        <v>93.31119700329836</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="W4" t="n">
-        <v>93.31119700329836</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="X4" t="n">
-        <v>84.08087627696059</v>
+        <v>14.75972856214954</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.08087627696059</v>
+        <v>14.75972856214954</v>
       </c>
     </row>
     <row r="5">
@@ -4564,19 +4564,19 @@
         <v>3.305200243802187</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952719</v>
+        <v>7.922179662952684</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030269</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176021</v>
+        <v>35.56734164176019</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654176</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682882</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="C6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="D6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="E6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="F6" t="n">
-        <v>34.19483012401904</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="G6" t="n">
-        <v>34.19483012401904</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802187</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441169</v>
+        <v>5.70652791044117</v>
       </c>
       <c r="J6" t="n">
         <v>12.29595456866669</v>
@@ -4655,13 +4655,13 @@
         <v>38.70199365651513</v>
       </c>
       <c r="M6" t="n">
-        <v>56.37392987329653</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N6" t="n">
-        <v>74.51358965724876</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O6" t="n">
-        <v>91.10783448937168</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P6" t="n">
         <v>104.4261789416173</v>
@@ -4679,19 +4679,19 @@
         <v>75.92715643465272</v>
       </c>
       <c r="U6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="V6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="W6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="X6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.19483012401904</v>
+        <v>75.92715643465272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.03752655443586</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C7" t="n">
-        <v>45.03752655443586</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="D7" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="E7" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F7" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G7" t="n">
         <v>3.305200243802187</v>
@@ -4728,7 +4728,7 @@
         <v>7.439194768028655</v>
       </c>
       <c r="K7" t="n">
-        <v>14.23261768427068</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L7" t="n">
         <v>22.9258601234117</v>
@@ -4743,34 +4743,34 @@
         <v>49.30432794779313</v>
       </c>
       <c r="P7" t="n">
-        <v>56.37629183493584</v>
+        <v>56.37629183493586</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.27255306197069</v>
+        <v>61.2725530619707</v>
       </c>
       <c r="R7" t="n">
-        <v>61.27255306197069</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S7" t="n">
-        <v>61.27255306197069</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T7" t="n">
-        <v>61.27255306197069</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U7" t="n">
-        <v>61.27255306197069</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V7" t="n">
-        <v>61.27255306197069</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W7" t="n">
-        <v>61.27255306197069</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X7" t="n">
-        <v>45.03752655443586</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.03752655443586</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4792,55 +4792,55 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>7.922179662952695</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J8" t="n">
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682882</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
-        <v>142.9948879228475</v>
+        <v>142.9948879228476</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.0716593183937</v>
+        <v>157.0716593183938</v>
       </c>
       <c r="R8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.08590667097184</v>
+        <v>34.19483012401903</v>
       </c>
       <c r="C9" t="n">
-        <v>86.08590667097184</v>
+        <v>34.19483012401903</v>
       </c>
       <c r="D9" t="n">
-        <v>86.08590667097184</v>
+        <v>34.19483012401903</v>
       </c>
       <c r="E9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441169</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
         <v>12.29595456866669</v>
@@ -4892,13 +4892,13 @@
         <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>56.37392987329653</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>74.51358965724876</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>91.10783448937168</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P9" t="n">
         <v>104.4261789416173</v>
@@ -4922,13 +4922,13 @@
         <v>117.6594827452864</v>
       </c>
       <c r="W9" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="X9" t="n">
-        <v>117.6594827452864</v>
+        <v>34.19483012401903</v>
       </c>
       <c r="Y9" t="n">
-        <v>117.6594827452864</v>
+        <v>34.19483012401903</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802187</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802187</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802187</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802187</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028655</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>14.23261768427068</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
         <v>22.9258601234117</v>
@@ -4980,34 +4980,34 @@
         <v>49.30432794779313</v>
       </c>
       <c r="P10" t="n">
-        <v>56.37629183493584</v>
+        <v>56.37629183493586</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.27255306197069</v>
+        <v>61.2725530619707</v>
       </c>
       <c r="R10" t="n">
-        <v>42.53724282532546</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S10" t="n">
-        <v>42.53724282532546</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T10" t="n">
-        <v>42.53724282532546</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U10" t="n">
-        <v>42.53724282532546</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V10" t="n">
-        <v>42.53724282532546</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W10" t="n">
-        <v>42.53724282532546</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X10" t="n">
-        <v>42.53724282532546</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802187</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>716.4307943255671</v>
+        <v>1530.944687111452</v>
       </c>
       <c r="C11" t="n">
-        <v>716.4307943255671</v>
+        <v>1092.802214294875</v>
       </c>
       <c r="D11" t="n">
-        <v>716.4307943255671</v>
+        <v>656.8924294693197</v>
       </c>
       <c r="E11" t="n">
-        <v>716.4307943255671</v>
+        <v>223.1176846276149</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>223.1176846276149</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435805</v>
@@ -5047,13 +5047,13 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
         <v>1775.969506973259</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V11" t="n">
-        <v>1785.939375850675</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W11" t="n">
-        <v>1381.083921261709</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X11" t="n">
-        <v>1124.716918025914</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y11" t="n">
-        <v>716.4307943255671</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5114,16 +5114,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.196554659879</v>
+        <v>730.9745012407178</v>
       </c>
       <c r="C13" t="n">
-        <v>856.6348431431041</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="D13" t="n">
-        <v>690.7568503446269</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E13" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
         <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221573</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807865</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X13" t="n">
-        <v>1448.434844064758</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y13" t="n">
-        <v>1221.015173378866</v>
+        <v>922.7931199597049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1580.208008741915</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C14" t="n">
-        <v>1580.208008741915</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D14" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2201.895650286574</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>1942.824958808088</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1580.208008741915</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W14" t="n">
-        <v>1580.208008741915</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X14" t="n">
-        <v>1580.208008741915</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.208008741915</v>
+        <v>294.5846426621872</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>663.4738450083642</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>573.2650719193497</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>407.3870791208724</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5475,13 +5475,13 @@
         <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895474</v>
@@ -5512,16 +5512,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2157.900089096321</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W17" t="n">
-        <v>1753.044634507354</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X17" t="n">
-        <v>1753.044634507354</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y17" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895474</v>
@@ -5679,19 +5679,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>828.1746199579901</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5703,22 +5703,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951972</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U19" t="n">
-        <v>2028.948289708806</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V19" t="n">
-        <v>2028.948289708806</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W19" t="n">
-        <v>1756.921885295098</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>884.8517156860543</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C20" t="n">
-        <v>446.7092428694776</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895474</v>
@@ -5752,13 +5752,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,7 +5773,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W20" t="n">
-        <v>1592.855172792597</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X20" t="n">
-        <v>1173.712709371907</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y20" t="n">
-        <v>884.8517156860543</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>663.4738450083642</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C22" t="n">
-        <v>558.4127897239429</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239429</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
         <v>47.20655154895474</v>
@@ -5910,25 +5910,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.331138940781</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.4344430832</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1896.248712168155</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1609.293204038585</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1337.266799624877</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>1091.875044958289</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>864.4553742723976</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>339.1270151866534</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>339.1270151866534</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>339.1270151866534</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>339.1270151866534</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6010,31 +6010,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381564</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.855172792597</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X23" t="n">
-        <v>1173.712709371908</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y23" t="n">
-        <v>765.4265856715612</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043086</v>
@@ -6083,13 +6083,13 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
         <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
         <v>1676.651116233592</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>858.3289888817358</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C25" t="n">
-        <v>685.7672773649607</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D25" t="n">
-        <v>685.7672773649607</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E25" t="n">
-        <v>516.009273615698</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545215</v>
+        <v>289.492000983386</v>
       </c>
       <c r="L25" t="n">
-        <v>733.4227107706876</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M25" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N25" t="n">
-        <v>1887.361501150537</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O25" t="n">
-        <v>2005.127382498299</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>2081.94094549648</v>
+        <v>1860.64766020125</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.985437366911</v>
+        <v>1573.692152071681</v>
       </c>
       <c r="W25" t="n">
-        <v>1522.959032953202</v>
+        <v>1301.665747657972</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.567278286615</v>
+        <v>1056.273992991385</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.147607600723</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1746.493890118551</v>
+        <v>1288.115307679938</v>
       </c>
       <c r="C26" t="n">
-        <v>1308.351417301975</v>
+        <v>1288.115307679938</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.351417301975</v>
+        <v>1288.115307679938</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>854.3405628382334</v>
       </c>
       <c r="F26" t="n">
         <v>446.7092428694776</v>
@@ -6223,7 +6223,7 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J26" t="n">
         <v>276.0532770435809</v>
@@ -6259,19 +6259,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V26" t="n">
-        <v>2165.636353539241</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W26" t="n">
-        <v>2165.636353539241</v>
+        <v>1696.401431380285</v>
       </c>
       <c r="X26" t="n">
-        <v>1746.493890118551</v>
+        <v>1696.401431380285</v>
       </c>
       <c r="Y26" t="n">
-        <v>1746.493890118551</v>
+        <v>1288.115307679938</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D28" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895475</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545215</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L28" t="n">
-        <v>688.1212571728196</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M28" t="n">
-        <v>1272.302332591134</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N28" t="n">
-        <v>1399.801244395024</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.85648477097</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U28" t="n">
-        <v>2315.903797838376</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V28" t="n">
-        <v>2028.948289708806</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1279.031102697186</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C29" t="n">
-        <v>840.8886298806092</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D29" t="n">
-        <v>404.9788450550537</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
         <v>47.20655154895475</v>
@@ -6460,7 +6460,7 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J29" t="n">
         <v>276.0532770435809</v>
@@ -6493,22 +6493,22 @@
         <v>2319.861207662535</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662535</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U29" t="n">
-        <v>2060.790516184049</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V29" t="n">
-        <v>1698.173566117875</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W29" t="n">
-        <v>1698.173566117875</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="X29" t="n">
-        <v>1279.031102697186</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="Y29" t="n">
-        <v>1279.031102697186</v>
+        <v>1754.536245353315</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.196554659879</v>
+        <v>894.4683967363994</v>
       </c>
       <c r="C31" t="n">
-        <v>856.6348431431041</v>
+        <v>721.9066852196244</v>
       </c>
       <c r="D31" t="n">
-        <v>690.7568503446269</v>
+        <v>556.0286924211471</v>
       </c>
       <c r="E31" t="n">
-        <v>520.9988465953642</v>
+        <v>386.2706886718843</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2917925571204</v>
+        <v>209.5636346336405</v>
       </c>
       <c r="G31" t="n">
         <v>179.5506121696388</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895475</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545215</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.331138940781</v>
+        <v>588.016025518682</v>
       </c>
       <c r="M31" t="n">
-        <v>1236.93553127931</v>
+        <v>718.6204178572116</v>
       </c>
       <c r="N31" t="n">
-        <v>1364.4344430832</v>
+        <v>1288.378132818746</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.85648477097</v>
@@ -6651,22 +6651,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U31" t="n">
-        <v>2252.808511274623</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="V31" t="n">
-        <v>1965.853003145054</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W31" t="n">
-        <v>1693.826598731346</v>
+        <v>1559.098440807866</v>
       </c>
       <c r="X31" t="n">
-        <v>1448.434844064758</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y31" t="n">
-        <v>1221.015173378866</v>
+        <v>1086.287015455387</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895475</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184049</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1782.900983623584</v>
+        <v>2000.015301047741</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>1580.872837627051</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>1580.872837627051</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>743.6816307030854</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C34" t="n">
-        <v>571.1199191863103</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D34" t="n">
-        <v>571.1199191863103</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E34" t="n">
-        <v>571.1199191863103</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F34" t="n">
         <v>407.3870791208724</v>
@@ -6855,55 +6855,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545215</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.331138940781</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.355695376305</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180195</v>
+        <v>1277.85475791851</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2143.342086321601</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>2143.342086321601</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774552</v>
+        <v>1856.386578192031</v>
       </c>
       <c r="W34" t="n">
-        <v>1408.311674774552</v>
+        <v>1584.360173778323</v>
       </c>
       <c r="X34" t="n">
-        <v>1162.919920107964</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="Y34" t="n">
-        <v>935.5002494220726</v>
+        <v>1111.548748425843</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>972.7977975613629</v>
+        <v>1359.639805365769</v>
       </c>
       <c r="C35" t="n">
-        <v>874.5766724602698</v>
+        <v>921.4973325491919</v>
       </c>
       <c r="D35" t="n">
-        <v>874.5766724602698</v>
+        <v>485.5875477236364</v>
       </c>
       <c r="E35" t="n">
-        <v>874.5766724602698</v>
+        <v>485.5875477236364</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>57.72011813284416</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895475</v>
@@ -6934,13 +6934,13 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K35" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
         <v>805.4408022867027</v>
@@ -6976,13 +6976,13 @@
         <v>1785.939375850676</v>
       </c>
       <c r="W35" t="n">
-        <v>1381.08392126171</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="X35" t="n">
-        <v>1381.08392126171</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="Y35" t="n">
-        <v>972.7977975613629</v>
+        <v>1785.939375850676</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
         <v>1488.088567599445</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>896.8524940391953</v>
+        <v>807.9003835041296</v>
       </c>
       <c r="C37" t="n">
-        <v>724.2907825224203</v>
+        <v>635.3386719873546</v>
       </c>
       <c r="D37" t="n">
-        <v>558.412789723943</v>
+        <v>469.4606791888773</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746802</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364364</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895475</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
         <v>47.20655154895475</v>
@@ -7098,22 +7098,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092382</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.85475791851</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.320157362631</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.85648477097</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2354.142798572221</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2111.895574475627</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U37" t="n">
-        <v>1833.50894252437</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V37" t="n">
-        <v>1833.50894252437</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>1088.671112758183</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1746.493890118551</v>
+        <v>1889.485634438364</v>
       </c>
       <c r="C38" t="n">
-        <v>1308.351417301975</v>
+        <v>1451.343161621787</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.351417301975</v>
+        <v>1015.433376796232</v>
       </c>
       <c r="E38" t="n">
-        <v>874.5766724602698</v>
+        <v>581.6586319545268</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>153.7912023637345</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867032</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973261</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662535</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U38" t="n">
-        <v>2165.636353539241</v>
+        <v>1889.485634438364</v>
       </c>
       <c r="V38" t="n">
-        <v>2165.636353539241</v>
+        <v>1889.485634438364</v>
       </c>
       <c r="W38" t="n">
-        <v>2165.636353539241</v>
+        <v>1889.485634438364</v>
       </c>
       <c r="X38" t="n">
-        <v>1746.493890118551</v>
+        <v>1889.485634438364</v>
       </c>
       <c r="Y38" t="n">
-        <v>1746.493890118551</v>
+        <v>1889.485634438364</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280537</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117179</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263733</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906862</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068479</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965047</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>730.883012763101</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I39" t="n">
-        <v>765.099748934577</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810442</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210237</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512934</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434255</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248785</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813591</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021825</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447738</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723125</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547006</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581079</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.5516673603</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>890.8935156942568</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>890.8935156942568</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>725.0155228957796</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>555.2575191465169</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>378.5504651082731</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>213.8092847207915</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>81.46522410010743</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092385</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827554</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789088</v>
+        <v>1364.4344430832</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540315</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.85648477097</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951973</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855379</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904122</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774553</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360844</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942568</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y40" t="n">
-        <v>890.8935156942568</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.033554032792</v>
+        <v>1440.733140952814</v>
       </c>
       <c r="C41" t="n">
-        <v>916.8910812162151</v>
+        <v>1002.590668136238</v>
       </c>
       <c r="D41" t="n">
-        <v>480.9812963906596</v>
+        <v>1002.590668136238</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895474</v>
+        <v>1002.590668136238</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,31 +7432,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W41" t="n">
-        <v>2200.475587938389</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="X41" t="n">
-        <v>1781.3331245177</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="Y41" t="n">
-        <v>1781.3331245177</v>
+        <v>1440.733140952814</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.3166270668975</v>
@@ -7545,52 +7545,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.655226289377</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C43" t="n">
-        <v>471.655226289377</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="D43" t="n">
-        <v>471.655226289377</v>
+        <v>584.1638654421566</v>
       </c>
       <c r="E43" t="n">
-        <v>471.655226289377</v>
+        <v>414.4058616928939</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>237.6988076546501</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545215</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.331138940781</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.4344430832</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2016.697670932566</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447737</v>
@@ -7602,19 +7602,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083642</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1624.755105488881</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="C44" t="n">
-        <v>1186.612632672305</v>
+        <v>1410.876791836584</v>
       </c>
       <c r="D44" t="n">
-        <v>750.7028478467491</v>
+        <v>974.9670070110287</v>
       </c>
       <c r="E44" t="n">
-        <v>316.9281030050443</v>
+        <v>541.1922621693238</v>
       </c>
       <c r="F44" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,31 +7669,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V44" t="n">
-        <v>1624.755105488881</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.755105488881</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="X44" t="n">
-        <v>1624.755105488881</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.755105488881</v>
+        <v>1849.019264653161</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043086</v>
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.655226289377</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C46" t="n">
-        <v>471.655226289377</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D46" t="n">
-        <v>471.655226289377</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E46" t="n">
-        <v>471.655226289377</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545215</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.331138940781</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180194</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
@@ -7842,16 +7842,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1423.376007470301</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
   </sheetData>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>141.4680432173441</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>45.75904403825052</v>
+        <v>69.27619576520596</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371572</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>141.4680432173445</v>
+        <v>158.2045317475399</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>263.8716243249374</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>177.1920849464603</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,19 +10515,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464597</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>156.730423204287</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042873</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371572</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>158.2045317475399</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
-        <v>177.1920849464593</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>158.2045317475399</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.43324883758633</v>
+        <v>10.43324883758613</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726475314</v>
+        <v>8.222887726475122</v>
       </c>
       <c r="E2" t="n">
-        <v>7.598647342395548</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>21.71160653689427</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>221.355642659444</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>161.1477055830456</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.7438090910209</v>
       </c>
       <c r="X13" t="n">
-        <v>133.3808763442459</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>177.1322645779586</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>52.80593112602798</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>81.52940904348299</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>257.8515264887133</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,16 +23737,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>158.5875670976096</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>190.6650602925684</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>87.01543208710629</v>
       </c>
       <c r="U19" t="n">
-        <v>90.51954388101061</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>41.22777660779758</v>
       </c>
       <c r="Y20" t="n">
-        <v>118.2308787143486</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>66.82564967003024</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>55.98944086058583</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>134.5874962935627</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24265,16 +24265,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>291.2528530245752</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>67.40401094798396</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>163.7266725241577</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>20.03374852581612</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>166.2464688960999</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.8692533779055</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>231.6232238184764</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>75.2424268222498</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>307.2687109362291</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.3808763442451</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>169.1588901203616</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>83.88014333065172</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>84.15945249443155</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>12.84447183307779</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>25.00911564075244</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>336.5221342383288</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>385.0992334892671</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>44.1432259463308</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811442</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>136.8593420240463</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>289.9888601006857</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>103.7973789816398</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>28.54824787247328</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>54.7415301048936</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>140.2904802223206</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>282.6151365161732</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>111.3145178010417</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>105.5270550534456</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>330.0505661880366</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>136.9692629928754</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>111.3145178010417</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14.91368936879155</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>374419.7540038181</v>
+        <v>374419.754003818</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>374419.7540038181</v>
+        <v>374419.754003818</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>374419.7540038181</v>
+        <v>374419.754003818</v>
       </c>
     </row>
     <row r="13">
@@ -26319,10 +26319,10 @@
         <v>335092.0749315053</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315054</v>
       </c>
       <c r="E2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="F2" t="n">
         <v>196621.9641260217</v>
@@ -26337,7 +26337,7 @@
         <v>196621.9641260217</v>
       </c>
       <c r="J2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="K2" t="n">
         <v>196621.9641260217</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150168925</v>
+        <v>25672.80150168946</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088768</v>
+        <v>18763.31828088748</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707182749</v>
+        <v>6103.578707182829</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749795</v>
+        <v>4629.330666749745</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>294841.7084545743</v>
       </c>
       <c r="E4" t="n">
-        <v>20967.98795247262</v>
+        <v>20967.98795247263</v>
       </c>
       <c r="F4" t="n">
-        <v>20967.98795247263</v>
+        <v>20967.98795247264</v>
       </c>
       <c r="G4" t="n">
         <v>20967.98795247263</v>
       </c>
       <c r="H4" t="n">
+        <v>20967.98795247263</v>
+      </c>
+      <c r="I4" t="n">
         <v>20967.98795247262</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20967.98795247263</v>
       </c>
       <c r="J4" t="n">
         <v>20967.98795247263</v>
       </c>
       <c r="K4" t="n">
-        <v>20967.98795247264</v>
+        <v>20967.98795247263</v>
       </c>
       <c r="L4" t="n">
-        <v>20967.98795247263</v>
+        <v>20967.98795247262</v>
       </c>
       <c r="M4" t="n">
         <v>20967.98795247263</v>
       </c>
       <c r="N4" t="n">
+        <v>20967.98795247264</v>
+      </c>
+      <c r="O4" t="n">
         <v>20967.98795247263</v>
       </c>
-      <c r="O4" t="n">
-        <v>20967.98795247262</v>
-      </c>
       <c r="P4" t="n">
-        <v>20967.98795247262</v>
+        <v>20967.98795247263</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413285</v>
+        <v>35449.86995413286</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26490,7 +26490,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963783</v>
@@ -26499,19 +26499,19 @@
         <v>46051.08120963783</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963783</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26025.81551304943</v>
+        <v>-26039.70665640799</v>
       </c>
       <c r="C6" t="n">
-        <v>-15366.52161416683</v>
+        <v>-15366.52161416665</v>
       </c>
       <c r="D6" t="n">
-        <v>3396.796666720729</v>
+        <v>3396.796666720962</v>
       </c>
       <c r="E6" t="n">
-        <v>-382882.6145920705</v>
+        <v>-383436.4950352925</v>
       </c>
       <c r="F6" t="n">
-        <v>129602.8949639112</v>
+        <v>129049.0145206893</v>
       </c>
       <c r="G6" t="n">
-        <v>129602.8949639113</v>
+        <v>129049.0145206893</v>
       </c>
       <c r="H6" t="n">
-        <v>129602.8949639112</v>
+        <v>129049.0145206892</v>
       </c>
       <c r="I6" t="n">
-        <v>129602.8949639112</v>
+        <v>129049.0145206893</v>
       </c>
       <c r="J6" t="n">
-        <v>123499.3162567285</v>
+        <v>122945.4358135064</v>
       </c>
       <c r="K6" t="n">
-        <v>124973.5642971614</v>
+        <v>124419.6838539395</v>
       </c>
       <c r="L6" t="n">
-        <v>129602.8949639112</v>
+        <v>129049.0145206893</v>
       </c>
       <c r="M6" t="n">
-        <v>-7152.009419204231</v>
+        <v>-7705.889862426143</v>
       </c>
       <c r="N6" t="n">
-        <v>129602.8949639112</v>
+        <v>129049.0145206892</v>
       </c>
       <c r="O6" t="n">
-        <v>129602.8949639113</v>
+        <v>129049.0145206892</v>
       </c>
       <c r="P6" t="n">
-        <v>129602.8949639112</v>
+        <v>129049.0145206892</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443658</v>
+        <v>18.52934677443673</v>
       </c>
       <c r="C3" t="n">
-        <v>32.75310206057159</v>
+        <v>32.7531020605716</v>
       </c>
       <c r="D3" t="n">
-        <v>32.75310206057159</v>
+        <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26755,7 +26755,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932213</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082459</v>
+        <v>23.32779925082478</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752733</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26810,7 +26810,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619344</v>
@@ -26819,19 +26819,19 @@
         <v>590.0818943619344</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443658</v>
+        <v>18.52934677443673</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613501</v>
+        <v>14.22375528613487</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082459</v>
+        <v>23.32779925082478</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670275</v>
+        <v>17.98720379670256</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082459</v>
+        <v>23.3277992508249</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670275</v>
+        <v>17.98720379670256</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082459</v>
+        <v>23.32779925082478</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670275</v>
+        <v>17.98720379670256</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379041</v>
+        <v>81.11791793379039</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27469,13 +27469,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>65.15911367781879</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>61.1635840095725</v>
+        <v>67.10049693821573</v>
       </c>
       <c r="H3" t="n">
-        <v>17.60557545265987</v>
+        <v>17.60557545265968</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.08058333091454</v>
+        <v>62.08058333091453</v>
       </c>
       <c r="T3" t="n">
         <v>128.7162112922732</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285714</v>
+        <v>101.8931221777466</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>140.8914136196679</v>
+        <v>151.4546432946298</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27557,7 +27557,7 @@
         <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>86.76851237028721</v>
+        <v>86.7685123702872</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403654</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.0666475106129</v>
@@ -27602,7 +27602,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>233.7998196008473</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27706,13 +27706,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>51.96926641858531</v>
       </c>
       <c r="G6" t="n">
-        <v>84.46078876789484</v>
+        <v>43.14578572036751</v>
       </c>
       <c r="H6" t="n">
-        <v>10.05716273395592</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>128.5928940176698</v>
       </c>
       <c r="U6" t="n">
-        <v>133.2535436095709</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27779,7 +27779,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>125.3794907147845</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27788,7 +27788,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H7" t="n">
         <v>137.9780290613614</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>156.6196485125224</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>226.8651608774622</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.83302175539413</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -27940,7 +27940,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878848</v>
+        <v>62.59847694490114</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
@@ -27949,7 +27949,7 @@
         <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27994,10 +27994,10 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28022,7 +28022,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>136.1002613421533</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>186.3057518233248</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914196</v>
+        <v>0.07448983627914259</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937629</v>
+        <v>0.7628690357937692</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151624</v>
+        <v>2.871769413151647</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896831</v>
+        <v>6.322231741896884</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511592912</v>
+        <v>9.475386511592991</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862071</v>
+        <v>11.7550548386208</v>
       </c>
       <c r="M2" t="n">
-        <v>13.0797634645499</v>
+        <v>13.07976346455001</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187801</v>
+        <v>13.29140771187812</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237729</v>
+        <v>12.5506994023774</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923597</v>
+        <v>10.71173156923606</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489197</v>
+        <v>8.044064307489265</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169656</v>
+        <v>4.679172178169694</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144210949</v>
+        <v>1.697437144210963</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119441</v>
+        <v>0.3260792583119468</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331356</v>
+        <v>0.005959186902331406</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086358</v>
+        <v>0.03985557608086392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651826</v>
+        <v>0.3849209584651858</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257803</v>
+        <v>1.372220492257815</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850363</v>
+        <v>3.765477913850393</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268223</v>
+        <v>6.435801511268275</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136632</v>
+        <v>8.653729359136703</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206793</v>
+        <v>10.09849399206802</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903127</v>
+        <v>10.36577107903136</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555293</v>
+        <v>9.482655419555371</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862452</v>
+        <v>7.610666979862514</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690587</v>
+        <v>5.087529325690629</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178531</v>
+        <v>2.474541820178552</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862157</v>
+        <v>0.7402998451862218</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312001</v>
+        <v>0.1606459404312014</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741026</v>
+        <v>0.002622077373741048</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062333</v>
+        <v>0.03341357615062361</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573604</v>
+        <v>0.2970770679573629</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0048373627842</v>
+        <v>1.004837362784209</v>
       </c>
       <c r="J4" t="n">
-        <v>2.36233983384907</v>
+        <v>2.362339833849089</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136056</v>
+        <v>3.882050029136088</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248128</v>
+        <v>4.967687494248169</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501801</v>
+        <v>5.237729941501844</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394937</v>
+        <v>5.113188430394978</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999016</v>
+        <v>4.722857108999055</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526297</v>
+        <v>4.041220155526331</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939923</v>
+        <v>2.797931362939946</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5023958876453</v>
+        <v>1.502395887645312</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704083</v>
+        <v>0.5823075043704131</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981179</v>
+        <v>0.142767098098119</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124911</v>
+        <v>0.001822558699124926</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>1.348473191870668</v>
       </c>
       <c r="I5" t="n">
-        <v>5.076237054030901</v>
+        <v>5.076237054030902</v>
       </c>
       <c r="J5" t="n">
         <v>11.17539134075754</v>
@@ -31296,28 +31296,28 @@
         <v>20.77863378260765</v>
       </c>
       <c r="M5" t="n">
-        <v>23.12023369725966</v>
+        <v>23.12023369725967</v>
       </c>
       <c r="N5" t="n">
-        <v>23.49434324994147</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978144</v>
       </c>
       <c r="P5" t="n">
         <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.21896100560221</v>
+        <v>14.21896100560222</v>
       </c>
       <c r="R5" t="n">
-        <v>8.27106350678344</v>
+        <v>8.271063506783442</v>
       </c>
       <c r="S5" t="n">
         <v>3.000447490272464</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5763887608850337</v>
+        <v>0.5763887608850338</v>
       </c>
       <c r="U5" t="n">
         <v>0.01053366096420392</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07045006858311625</v>
+        <v>0.07045006858311627</v>
       </c>
       <c r="H6" t="n">
-        <v>0.680399346579044</v>
+        <v>0.6803993465790441</v>
       </c>
       <c r="I6" t="n">
         <v>2.425583501655538</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -31384,22 +31384,22 @@
         <v>16.76186346679082</v>
       </c>
       <c r="P6" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408648</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.992889456329017</v>
+        <v>8.992889456329019</v>
       </c>
       <c r="R6" t="n">
-        <v>4.374084082730676</v>
+        <v>4.374084082730677</v>
       </c>
       <c r="S6" t="n">
-        <v>1.308579124778496</v>
+        <v>1.308579124778497</v>
       </c>
       <c r="T6" t="n">
         <v>0.2839632150345782</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004634872933099755</v>
+        <v>0.004634872933099756</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05906297092889959</v>
+        <v>0.0590629709288996</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5251235051678531</v>
+        <v>0.5251235051678532</v>
       </c>
       <c r="I7" t="n">
-        <v>1.776184616661817</v>
+        <v>1.776184616661818</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1757520446732</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739423</v>
+        <v>6.862043349739425</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829309</v>
+        <v>8.781052968829311</v>
       </c>
       <c r="M7" t="n">
-        <v>9.258389161154685</v>
+        <v>9.258389161154687</v>
       </c>
       <c r="N7" t="n">
-        <v>9.038245360419705</v>
+        <v>9.038245360419706</v>
       </c>
       <c r="O7" t="n">
-        <v>8.348282472750283</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
         <v>7.143397865800726</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.94571841114631</v>
+        <v>4.945718411146311</v>
       </c>
       <c r="R7" t="n">
-        <v>2.655685947403066</v>
+        <v>2.655685947403067</v>
       </c>
       <c r="S7" t="n">
-        <v>1.029306502460913</v>
+        <v>1.029306502460914</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2523599666962072</v>
+        <v>0.2523599666962073</v>
       </c>
       <c r="U7" t="n">
         <v>0.0032216165961218</v>
@@ -31521,7 +31521,7 @@
         <v>1.348473191870668</v>
       </c>
       <c r="I8" t="n">
-        <v>5.076237054030901</v>
+        <v>5.076237054030902</v>
       </c>
       <c r="J8" t="n">
         <v>11.17539134075754</v>
@@ -31533,28 +31533,28 @@
         <v>20.77863378260765</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725966</v>
+        <v>23.12023369725967</v>
       </c>
       <c r="N8" t="n">
-        <v>23.49434324994147</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978144</v>
       </c>
       <c r="P8" t="n">
         <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.21896100560221</v>
+        <v>14.21896100560222</v>
       </c>
       <c r="R8" t="n">
-        <v>8.27106350678344</v>
+        <v>8.271063506783442</v>
       </c>
       <c r="S8" t="n">
         <v>3.000447490272464</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5763887608850337</v>
+        <v>0.5763887608850338</v>
       </c>
       <c r="U8" t="n">
         <v>0.01053366096420392</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07045006858311625</v>
+        <v>0.07045006858311627</v>
       </c>
       <c r="H9" t="n">
-        <v>0.680399346579044</v>
+        <v>0.6803993465790441</v>
       </c>
       <c r="I9" t="n">
         <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -31621,22 +31621,22 @@
         <v>16.76186346679082</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408648</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.992889456329017</v>
+        <v>8.992889456329019</v>
       </c>
       <c r="R9" t="n">
-        <v>4.374084082730676</v>
+        <v>4.374084082730677</v>
       </c>
       <c r="S9" t="n">
-        <v>1.308579124778496</v>
+        <v>1.308579124778497</v>
       </c>
       <c r="T9" t="n">
         <v>0.2839632150345782</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004634872933099755</v>
+        <v>0.004634872933099756</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,46 +31673,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05906297092889959</v>
+        <v>0.0590629709288996</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5251235051678531</v>
+        <v>0.5251235051678532</v>
       </c>
       <c r="I10" t="n">
-        <v>1.776184616661817</v>
+        <v>1.776184616661818</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1757520446732</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739423</v>
+        <v>6.862043349739425</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829309</v>
+        <v>8.781052968829311</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154685</v>
+        <v>9.258389161154687</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419705</v>
+        <v>9.038245360419706</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750283</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
         <v>7.143397865800726</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.94571841114631</v>
+        <v>4.945718411146311</v>
       </c>
       <c r="R10" t="n">
-        <v>2.655685947403066</v>
+        <v>2.655685947403067</v>
       </c>
       <c r="S10" t="n">
-        <v>1.029306502460913</v>
+        <v>1.029306502460914</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2523599666962072</v>
+        <v>0.2523599666962073</v>
       </c>
       <c r="U10" t="n">
         <v>0.0032216165961218</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916725</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,7 +32800,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811309</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183765</v>
@@ -33025,7 +33025,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811309</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -33265,7 +33265,7 @@
         <v>94.84175691562341</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415856</v>
       </c>
       <c r="L30" t="n">
         <v>217.9630089646691</v>
@@ -33283,7 +33283,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233626</v>
@@ -33660,7 +33660,7 @@
         <v>159.2391669125711</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
@@ -33736,7 +33736,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33973,7 +33973,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33991,7 +33991,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -34128,7 +34128,7 @@
         <v>19.21451706968724</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469904</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J41" t="n">
         <v>159.2391669125711</v>
@@ -34207,10 +34207,10 @@
         <v>9.695072128879938</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916725</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020226</v>
+        <v>2.459147934020249</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896831</v>
+        <v>6.322231741896884</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511592912</v>
+        <v>9.475386511592992</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862071</v>
+        <v>11.7550548386208</v>
       </c>
       <c r="M2" t="n">
-        <v>13.0797634645499</v>
+        <v>13.07976346455001</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187801</v>
+        <v>13.29140771187812</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237729</v>
+        <v>12.55069940237739</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923597</v>
+        <v>10.71173156923606</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489194</v>
+        <v>8.044064307489265</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169665</v>
+        <v>4.679172178169694</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257803</v>
+        <v>1.372220492257815</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850363</v>
+        <v>3.765477913850393</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268224</v>
+        <v>6.435801511268276</v>
       </c>
       <c r="L3" t="n">
-        <v>8.65372935913663</v>
+        <v>8.653729359136705</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206794</v>
+        <v>10.09849399206801</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903127</v>
+        <v>10.36577107903135</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555293</v>
+        <v>9.482655419555371</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862451</v>
+        <v>7.610666979862515</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690582</v>
+        <v>5.087529325690632</v>
       </c>
       <c r="R3" t="n">
-        <v>2.47454182017853</v>
+        <v>2.474541820178558</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.36233983384907</v>
+        <v>2.362339833849089</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136053</v>
+        <v>3.882050029136088</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248125</v>
+        <v>4.967687494248169</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501797</v>
+        <v>5.237729941501845</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394942</v>
+        <v>5.113188430394978</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999023</v>
+        <v>4.722857108999055</v>
       </c>
       <c r="P4" t="n">
-        <v>4.04122015552629</v>
+        <v>4.041220155526329</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.79793136293992</v>
+        <v>2.797931362939948</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34932,10 +34932,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.663615574899503</v>
+        <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.17539134075754</v>
+        <v>11.17539134075756</v>
       </c>
       <c r="K5" t="n">
         <v>16.74901469844195</v>
@@ -34953,7 +34953,7 @@
         <v>22.18504210978143</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160912</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
         <v>14.21896100560221</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655538</v>
+        <v>2.425583501655539</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -35026,7 +35026,7 @@
         <v>17.85044062301152</v>
       </c>
       <c r="N6" t="n">
-        <v>18.32288867065882</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O6" t="n">
         <v>16.76186346679083</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1757520446732</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739423</v>
+        <v>6.862043349739428</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829307</v>
+        <v>8.781052968829309</v>
       </c>
       <c r="M7" t="n">
         <v>9.258389161154689</v>
@@ -35111,7 +35111,7 @@
         <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
-        <v>7.143397865800722</v>
+        <v>7.143397865800729</v>
       </c>
       <c r="Q7" t="n">
         <v>4.945718411146309</v>
@@ -35169,31 +35169,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.663615574899503</v>
+        <v>4.663615574899505</v>
       </c>
       <c r="J8" t="n">
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260765</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
         <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
-        <v>23.49434324994147</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160912</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.21896100560224</v>
+        <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
         <v>8.271063506783435</v>
@@ -35263,7 +35263,7 @@
         <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>18.32288867065882</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
         <v>16.76186346679083</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1757520446732</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739423</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829307</v>
+        <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
         <v>9.258389161154689</v>
@@ -35348,7 +35348,7 @@
         <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>7.143397865800729</v>
       </c>
       <c r="Q10" t="n">
         <v>4.945718411146309</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
@@ -35588,7 +35588,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35661,7 +35661,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35728,10 +35728,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35889,10 +35889,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -36047,22 +36047,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>266.5900650540087</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M19" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916725</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512694</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816035</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562342</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811309</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L25" t="n">
-        <v>170.8810658749152</v>
+        <v>194.3982176018706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027016</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36673,7 +36673,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811309</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366647</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
         <v>590.0818943619344</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>260.4234789221546</v>
+        <v>277.15996745235</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027016</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36913,7 +36913,7 @@
         <v>94.84175691562342</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415856</v>
       </c>
       <c r="L30" t="n">
         <v>217.9630089646691</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>388.993646161602</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
-        <v>296.1475206512703</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027016</v>
@@ -37080,7 +37080,7 @@
         <v>329.4423112816035</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562285</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572665</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>547.5562458447063</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027016</v>
@@ -37308,10 +37308,10 @@
         <v>159.2391669125711</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062839</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816035</v>
@@ -37384,7 +37384,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37396,13 +37396,13 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37466,25 +37466,25 @@
         <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L37" t="n">
-        <v>281.8524450409516</v>
+        <v>547.5562458447063</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027016</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37630,22 +37630,22 @@
         <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409519</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619345</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512703</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027016</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785899</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J41" t="n">
         <v>159.2391669125711</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916725</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L43" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>296.1475206512694</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>259.9914571795434</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027016</v>
@@ -38016,7 +38016,7 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562285</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L46" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9788645463477</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
-        <v>118.95543570481</v>
+        <v>277.15996745235</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027016</v>
